--- a/database/AN_pp/expdata/4001.xlsx
+++ b/database/AN_pp/expdata/4001.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F00AC-4CCF-3240-863E-1E6DD408ED44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC52374-2529-5B44-A138-4D2D387C4BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23760" yWindow="3760" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9320" yWindow="460" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>xF</t>
   </si>
@@ -93,6 +83,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000_ "/>
+    <numFmt numFmtId="168" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -212,22 +212,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -605,37 +609,37 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>0.1225292</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>9.3670299999999999E-4</v>
+      <c r="A2" s="8">
+        <v>0.14377000000000001</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3.42677E-3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>4.2719799999999999E-3</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="7">
-        <v>2.6480299999999999</v>
+      <c r="E2" s="8">
+        <v>2.2496399999999999</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -654,37 +658,37 @@
       </c>
       <c r="K2">
         <f>ASINH(A2*F2/(2*E2))</f>
-        <v>3.1432492212380505</v>
+        <v>3.4652753569055998</v>
       </c>
       <c r="L2">
         <f>AVERAGE(K1:K11)</f>
-        <v>3.3719632483897173</v>
+        <v>3.5870877152964002</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="9">
-        <v>0.112</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="14">
         <v>0.13200000000000001</v>
       </c>
+      <c r="O2" s="14">
+        <v>0.152</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>0.14227919999999999</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>8.0409999999999998E-4</v>
+      <c r="A3" s="8">
+        <v>0.16251299999999999</v>
+      </c>
+      <c r="B3" s="8">
+        <v>9.1818000000000004E-3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3.0924899999999998E-3</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>2.8160799999999999</v>
+      <c r="E3" s="8">
+        <v>2.4965700000000002</v>
       </c>
       <c r="F3">
         <v>500</v>
@@ -703,33 +707,33 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K11" si="0">ASINH(A3*F3/(2*E3))</f>
-        <v>3.2308616196731061</v>
+        <v>3.4836356927158962</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="N3" s="14">
         <v>0.152</v>
       </c>
+      <c r="O3" s="14">
+        <v>0.17199999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>0.16207759999999999</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.4040300000000005E-4</v>
+      <c r="A4" s="8">
+        <v>0.182148</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-8.1050700000000002E-4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.7221799999999998E-3</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
-        <v>2.9604499999999998</v>
+      <c r="E4" s="8">
+        <v>2.7233399999999999</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -748,33 +752,33 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>3.3109186383784053</v>
+        <v>3.5107062571067424</v>
       </c>
       <c r="M4" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
-        <v>0.152</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="14">
         <v>0.17199999999999999</v>
       </c>
+      <c r="O4" s="14">
+        <v>0.192</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0.18187319999999998</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.3004899999999998E-4</v>
+      <c r="A5" s="8">
+        <v>0.201935</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.8824099999999999E-3</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.57887E-3</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
-        <v>3.0997499999999998</v>
+      <c r="E5" s="8">
+        <v>2.9261300000000001</v>
       </c>
       <c r="F5">
         <v>500</v>
@@ -793,33 +797,33 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3.380000996618266</v>
+        <v>3.5419567889809569</v>
       </c>
       <c r="M5" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="14">
         <v>0.192</v>
       </c>
+      <c r="O5" s="14">
+        <v>0.21199999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>0.20160640000000002</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7.5879599999999995E-4</v>
+      <c r="A6" s="8">
+        <v>0.22181400000000001</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.4126099999999999E-3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.58734E-3</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
-        <v>3.3249399999999998</v>
+      <c r="E6" s="8">
+        <v>3.1057899999999998</v>
       </c>
       <c r="F6">
         <v>500</v>
@@ -838,33 +842,33 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>3.4128046762569686</v>
+        <v>3.5762071790330792</v>
       </c>
       <c r="M6" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
-        <v>0.192</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="14">
         <v>0.21199999999999999</v>
       </c>
+      <c r="O6" s="14">
+        <v>0.23200000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>0.2215192</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8.2508099999999997E-4</v>
+      <c r="A7" s="8">
+        <v>0.24548400000000001</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3.2653600000000001E-3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.3091299999999999E-3</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
-        <v>3.58772</v>
+      <c r="E7" s="8">
+        <v>3.2727200000000001</v>
       </c>
       <c r="F7">
         <v>500</v>
@@ -883,33 +887,33 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>3.4308927748846876</v>
+        <v>3.6251733283647973</v>
       </c>
       <c r="M7" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="9">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="N7" s="14">
         <v>0.23200000000000001</v>
       </c>
+      <c r="O7" s="14">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>0.24490919999999999</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8.2751299999999999E-4</v>
+      <c r="A8" s="8">
+        <v>0.27866000000000002</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2.5219800000000001E-3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.22719E-3</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
-        <v>3.8971200000000001</v>
+      <c r="E8" s="8">
+        <v>3.4462100000000002</v>
       </c>
       <c r="F8">
         <v>500</v>
@@ -928,33 +932,33 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>3.448513826806769</v>
+        <v>3.7001813614974735</v>
       </c>
       <c r="M8" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="9">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="N8" s="14">
         <v>0.26</v>
       </c>
+      <c r="O8" s="14">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>0.27750999999999998</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.2643700000000001E-4</v>
+      <c r="A9" s="8">
+        <v>0.32571800000000001</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6.3570800000000002E-3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.4559899999999999E-3</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
-        <v>4.3504500000000004</v>
+      <c r="E9" s="8">
+        <v>3.9786299999999999</v>
       </c>
       <c r="F9">
         <v>500</v>
@@ -973,33 +977,33 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>3.4634120933461636</v>
+        <v>3.7125435435484566</v>
       </c>
       <c r="M9" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="O9" s="9">
+      <c r="N9" s="14">
         <v>0.3</v>
       </c>
+      <c r="O9" s="14">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>0.324214</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.21086E-3</v>
+      <c r="A10" s="9">
+        <v>0.39960600000000002</v>
+      </c>
+      <c r="B10" s="9">
+        <v>6.6402299999999996E-3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3.5362599999999998E-3</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
-        <v>5.0665699999999996</v>
+      <c r="E10" s="9">
+        <v>5.1032299999999999</v>
       </c>
       <c r="F10">
         <v>500</v>
@@ -1018,62 +1022,116 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>3.4665679652660821</v>
+        <v>3.6681099295145962</v>
       </c>
       <c r="M10" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="N10" s="14">
         <v>0.36</v>
       </c>
+      <c r="O10" s="14">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>0.39959840000000002</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1.94144E-3</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>6.4620499999999996</v>
-      </c>
-      <c r="F11">
-        <v>500</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>3.4324106714286748</v>
-      </c>
-      <c r="M11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0.36</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0.48</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="12"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="12"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="12"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="12"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="12"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="12"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/AN_pp/expdata/4001.xlsx
+++ b/database/AN_pp/expdata/4001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC52374-2529-5B44-A138-4D2D387C4BF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D1B1E-7D24-964A-8E9C-FC45D65EF143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="460" windowWidth="24100" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="980" windowWidth="26960" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>xF</t>
   </si>
@@ -64,30 +64,17 @@
     <t>jet</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>&lt;y&gt;</t>
-  </si>
-  <si>
     <t>Dependence</t>
-  </si>
-  <si>
-    <t>xFmin</t>
-  </si>
-  <si>
-    <t>xFmax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000_ "/>
-    <numFmt numFmtId="168" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +86,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -224,14 +204,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,33 +589,21 @@
       <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    </row>
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>0.14377000000000001</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>3.42677E-3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>4.2719799999999999E-3</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2.2496399999999999</v>
       </c>
       <c r="F2">
@@ -656,38 +621,24 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="K2">
-        <f>ASINH(A2*F2/(2*E2))</f>
-        <v>3.4652753569055998</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGE(K1:K11)</f>
-        <v>3.5870877152964002</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0.152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>0.16251299999999999</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>9.1818000000000004E-3</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>3.0924899999999998E-3</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>2.4965700000000002</v>
       </c>
       <c r="F3">
@@ -705,34 +656,24 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K11" si="0">ASINH(A3*F3/(2*E3))</f>
-        <v>3.4836356927158962</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14">
-        <v>0.152</v>
-      </c>
-      <c r="O3" s="14">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>0.182148</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>-8.1050700000000002E-4</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>2.7221799999999998E-3</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>2.7233399999999999</v>
       </c>
       <c r="F4">
@@ -750,34 +691,24 @@
       <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>3.5107062571067424</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="O4" s="14">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>0.201935</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>1.8824099999999999E-3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>2.57887E-3</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2.9261300000000001</v>
       </c>
       <c r="F5">
@@ -795,34 +726,24 @@
       <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>3.5419567889809569</v>
-      </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0.192</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0.21199999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>0.22181400000000001</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>1.4126099999999999E-3</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>2.58734E-3</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>3.1057899999999998</v>
       </c>
       <c r="F6">
@@ -840,34 +761,24 @@
       <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>3.5762071790330792</v>
-      </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>0.24548400000000001</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>3.2653600000000001E-3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>2.3091299999999999E-3</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>3.2727200000000001</v>
       </c>
       <c r="F7">
@@ -885,34 +796,24 @@
       <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>3.6251733283647973</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>0.27866000000000002</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>2.5219800000000001E-3</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>2.22719E-3</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>3.4462100000000002</v>
       </c>
       <c r="F8">
@@ -930,34 +831,24 @@
       <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>3.7001813614974735</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="14">
-        <v>0.26</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="K8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>0.32571800000000001</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>6.3570800000000002E-3</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>2.4559899999999999E-3</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>3.9786299999999999</v>
       </c>
       <c r="F9">
@@ -975,34 +866,24 @@
       <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>3.7125435435484566</v>
-      </c>
-      <c r="M9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>0.39960600000000002</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>6.6402299999999996E-3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>3.5362599999999998E-3</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>5.1032299999999999</v>
       </c>
       <c r="F10">
@@ -1020,118 +901,88 @@
       <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>3.6681099295145962</v>
-      </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="12"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="12"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="12"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="12"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="12"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="12"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="12"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/AN_pp/expdata/4001.xlsx
+++ b/database/AN_pp/expdata/4001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D1B1E-7D24-964A-8E9C-FC45D65EF143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03CBDE-7BDB-614F-86CB-8F14ED89BFD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="980" windowWidth="26960" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="980" windowWidth="26960" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000_ "/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,21 +88,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,55 +120,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -192,23 +134,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,24 +519,24 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0.14377000000000001</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>3.42677E-3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>4.2719799999999999E-3</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>2.2496399999999999</v>
       </c>
       <c r="F2">
@@ -625,20 +558,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0.16251299999999999</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>9.1818000000000004E-3</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>3.0924899999999998E-3</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>2.4965700000000002</v>
       </c>
       <c r="F3">
@@ -660,20 +593,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>0.182148</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>-8.1050700000000002E-4</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>2.7221799999999998E-3</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>2.7233399999999999</v>
       </c>
       <c r="F4">
@@ -695,20 +628,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>0.201935</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>1.8824099999999999E-3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>2.57887E-3</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2.9261300000000001</v>
       </c>
       <c r="F5">
@@ -730,20 +663,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>0.22181400000000001</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>1.4126099999999999E-3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>2.58734E-3</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>3.1057899999999998</v>
       </c>
       <c r="F6">
@@ -765,20 +698,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>0.24548400000000001</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>3.2653600000000001E-3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>2.3091299999999999E-3</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>3.2727200000000001</v>
       </c>
       <c r="F7">
@@ -800,20 +733,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>0.27866000000000002</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>2.5219800000000001E-3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>2.22719E-3</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.4462100000000002</v>
       </c>
       <c r="F8">
@@ -835,20 +768,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>0.32571800000000001</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>6.3570800000000002E-3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>2.4559899999999999E-3</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>3.9786299999999999</v>
       </c>
       <c r="F9">
@@ -870,20 +803,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>0.39960600000000002</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>6.6402299999999996E-3</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10">
         <v>3.5362599999999998E-3</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>5.1032299999999999</v>
       </c>
       <c r="F10">
@@ -904,85 +837,6 @@
       <c r="K10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
